--- a/output/table2/Table2_intraday_volume_total.xlsx
+++ b/output/table2/Table2_intraday_volume_total.xlsx
@@ -638,7 +638,7 @@
         <v>24.43583447678197</v>
       </c>
       <c r="K2" t="n">
-        <v>67.41014044196295</v>
+        <v>67.41014044196297</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>27.69043423536816</v>
       </c>
       <c r="W2" t="n">
-        <v>70.99128985024718</v>
+        <v>70.99128985024717</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -732,7 +732,7 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>20.17086733588502</v>
+        <v>20.17086733588503</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>31.99000618924528</v>
+        <v>31.99000618924527</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -2385,82 +2385,82 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2561.796774193549</v>
+        <v>2550.204933586338</v>
       </c>
       <c r="E26" t="n">
-        <v>2478.054982046387</v>
+        <v>2478.414796679735</v>
       </c>
       <c r="F26" t="n">
-        <v>446.1532258064516</v>
+        <v>433.3548387096774</v>
       </c>
       <c r="G26" t="n">
-        <v>1990.435483870968</v>
+        <v>1978.806451612903</v>
       </c>
       <c r="H26" t="n">
-        <v>4100.782258064516</v>
+        <v>4081.548387096774</v>
       </c>
       <c r="I26" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J26" t="n">
-        <v>2875.081073025335</v>
+        <v>2862.071656405311</v>
       </c>
       <c r="K26" t="n">
-        <v>2257.510538887546</v>
+        <v>2260.661787173694</v>
       </c>
       <c r="L26" t="n">
-        <v>1255.995901639344</v>
+        <v>1179.360655737705</v>
       </c>
       <c r="M26" t="n">
-        <v>2762.27868852459</v>
+        <v>2757.934426229508</v>
       </c>
       <c r="N26" t="n">
-        <v>4271.663934426229</v>
+        <v>4255.55737704918</v>
       </c>
       <c r="O26" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P26" t="n">
-        <v>2883.813148009016</v>
+        <v>2870.764219737482</v>
       </c>
       <c r="Q26" t="n">
-        <v>2179.46891425523</v>
+        <v>2183.145465792814</v>
       </c>
       <c r="R26" t="n">
-        <v>1481.859504132231</v>
+        <v>1476.380165289256</v>
       </c>
       <c r="S26" t="n">
-        <v>2851.731404958678</v>
+        <v>2844.611570247934</v>
       </c>
       <c r="T26" t="n">
-        <v>4268.25</v>
+        <v>4258.074380165289</v>
       </c>
       <c r="U26" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V26" t="n">
-        <v>2575.278658008658</v>
+        <v>2563.625813402284</v>
       </c>
       <c r="W26" t="n">
-        <v>1907.426944335968</v>
+        <v>1910.955060900347</v>
       </c>
       <c r="X26" t="n">
-        <v>1278.463095238095</v>
+        <v>1270.509523809524</v>
       </c>
       <c r="Y26" t="n">
-        <v>2526.792857142857</v>
+        <v>2524.238095238095</v>
       </c>
       <c r="Z26" t="n">
-        <v>3813.719047619048</v>
+        <v>3812.452380952381</v>
       </c>
       <c r="AA26" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AB26" t="n">
-        <v>736.6813597348089</v>
+        <v>736.1477546962842</v>
       </c>
       <c r="AC26" t="n">
-        <v>574.4739568490946</v>
+        <v>575.0646640001602</v>
       </c>
       <c r="AD26" t="n">
         <v>313.1575757575758</v>
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>817.3245723362659</v>
+        <v>935.2473361553059</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -2500,7 +2500,7 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>1103.673180576254</v>
+        <v>1222.043950745493</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>1103.899367643376</v>
+        <v>1220.935361430014</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
@@ -2516,7 +2516,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="n">
-        <v>718.7437031024532</v>
+        <v>839.0911387631976</v>
       </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
@@ -2524,7 +2524,7 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
-        <v>82.22463534044124</v>
+        <v>95.65479055258466</v>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
@@ -2549,7 +2549,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -2557,7 +2557,7 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -2565,7 +2565,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -2573,7 +2573,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>

--- a/output/table2/Table2_intraday_volume_total.xlsx
+++ b/output/table2/Table2_intraday_volume_total.xlsx
@@ -617,91 +617,91 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>26.44024442233907</v>
+        <v>60.40670740372318</v>
       </c>
       <c r="E2" t="n">
-        <v>94.86177897616905</v>
+        <v>212.6735049918422</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="H2" t="n">
-        <v>6.483870967741936</v>
+        <v>32.29032258064516</v>
       </c>
       <c r="I2" t="n">
         <v>227</v>
       </c>
       <c r="J2" t="n">
-        <v>24.43583447678197</v>
+        <v>54.57889795623601</v>
       </c>
       <c r="K2" t="n">
-        <v>67.41014044196297</v>
+        <v>164.6229224345818</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06557377049180328</v>
+        <v>1.655737704918033</v>
       </c>
       <c r="N2" t="n">
-        <v>10.9672131147541</v>
+        <v>28.30327868852459</v>
       </c>
       <c r="O2" t="n">
         <v>227</v>
       </c>
       <c r="P2" t="n">
-        <v>36.3125204791204</v>
+        <v>40.75869224888047</v>
       </c>
       <c r="Q2" t="n">
-        <v>97.00228442633394</v>
+        <v>109.5695240186682</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8347107438016529</v>
+        <v>1.628099173553719</v>
       </c>
       <c r="T2" t="n">
-        <v>18.12809917355372</v>
+        <v>25.93388429752066</v>
       </c>
       <c r="U2" t="n">
         <v>227</v>
       </c>
       <c r="V2" t="n">
-        <v>27.69043423536816</v>
+        <v>28.8698762324313</v>
       </c>
       <c r="W2" t="n">
-        <v>70.99128985024717</v>
+        <v>73.36182663070548</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.857142857142857</v>
+        <v>2.028571428571428</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.93571428571428</v>
+        <v>19.23571428571429</v>
       </c>
       <c r="AA2" t="n">
         <v>227</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.806597917501001</v>
+        <v>7.631100654118275</v>
       </c>
       <c r="AC2" t="n">
-        <v>18.19062043476003</v>
+        <v>17.61769816597677</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.7303030303030303</v>
+        <v>0.8075757575757576</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.58939393939394</v>
+        <v>6.338636363636363</v>
       </c>
       <c r="AG2" t="n">
         <v>227</v>
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>22.01083558334517</v>
+        <v>55.07126616455876</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -732,7 +732,7 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>20.17086733588503</v>
+        <v>49.58332129703184</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>31.99000618924527</v>
+        <v>36.29712018058033</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -748,7 +748,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>23.39607719739878</v>
+        <v>24.1410950283197</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -756,7 +756,7 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="n">
-        <v>4.918391236150047</v>
+        <v>4.954557969563476</v>
       </c>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
